--- a/MainTop/08.04.2025/всего3_sorted.xlsx
+++ b/MainTop/08.04.2025/всего3_sorted.xlsx
@@ -467,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V152"/>
+  <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>6</v>
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="2" t="n">
         <v>0</v>
@@ -649,7 +649,7 @@
       <c r="S2" s="2" t="inlineStr"/>
       <c r="T2" s="2" t="inlineStr"/>
       <c r="U2" s="2" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V2" s="2" t="inlineStr">
         <is>
@@ -1723,25 +1723,25 @@
         <v>2</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>3</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>1</v>
@@ -2137,25 +2137,25 @@
         <v>2</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="4" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J24" s="4" t="n">
         <v>1</v>
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="B37" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="5" t="n">
         <v>1</v>
@@ -3056,7 +3056,7 @@
         <v>2</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>1</v>
@@ -3187,10 +3187,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>2</v>
@@ -3199,19 +3199,19 @@
         <v>2</v>
       </c>
       <c r="G39" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L39" s="5" t="n">
         <v>0</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="N39" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O39" s="5" t="n">
         <v>0</v>
       </c>
       <c r="P39" s="5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>0</v>
@@ -3239,7 +3239,7 @@
       <c r="S39" s="5" t="inlineStr"/>
       <c r="T39" s="5" t="inlineStr"/>
       <c r="U39" s="5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V39" s="5" t="inlineStr">
         <is>
@@ -3257,22 +3257,22 @@
         <v>1</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>1</v>
@@ -3330,13 +3330,13 @@
         <v>1</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>0</v>
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="5" t="n">
         <v>0</v>
@@ -3403,34 +3403,34 @@
         <v>0</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="5" t="n">
         <v>1</v>
       </c>
       <c r="N42" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O42" s="5" t="n">
         <v>0</v>
@@ -3458,70 +3458,70 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="inlineStr">
-        <is>
-          <t>Термонаклейка Маленький принц на синем ките</t>
-        </is>
-      </c>
-      <c r="B43" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D43" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P43" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="5" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S43" s="5" t="inlineStr"/>
-      <c r="T43" s="5" t="inlineStr"/>
-      <c r="U43" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="V43" s="5" t="inlineStr">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>Термонаклейка Цветы Магнолия 3шт розовые</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="6" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S43" s="6" t="inlineStr"/>
+      <c r="T43" s="6" t="inlineStr"/>
+      <c r="U43" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="V43" s="6" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -3530,7 +3530,7 @@
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Колибри 2шт</t>
+          <t>Термонаклейка Девушка макияж Хэллоуин</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0</v>
@@ -3555,28 +3555,28 @@
         <v>0</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L44" s="6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M44" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q44" s="6" t="n">
         <v>0</v>
@@ -3589,7 +3589,7 @@
       <c r="S44" s="6" t="inlineStr"/>
       <c r="T44" s="6" t="inlineStr"/>
       <c r="U44" s="6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V44" s="6" t="inlineStr">
         <is>
@@ -3600,23 +3600,23 @@
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>Термонаклейка Цветы Магнолия 3шт розовые</t>
+          <t>Термонаклейка Маленький принц на синем ките</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0</v>
@@ -3640,10 +3640,10 @@
         <v>1</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P45" s="6" t="n">
         <v>12</v>
@@ -3670,7 +3670,7 @@
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>Термонаклейка Девушка макияж Хэллоуин</t>
+          <t>Термонаклейка Цветы Колибри 2шт</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
@@ -3680,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>0</v>
@@ -3704,13 +3704,13 @@
         <v>3</v>
       </c>
       <c r="L46" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O46" s="6" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>0</v>
@@ -3780,10 +3780,10 @@
         <v>1</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P47" s="6" t="n">
         <v>12</v>
@@ -3960,19 +3960,19 @@
         <v>1</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="6" t="n">
         <v>1</v>
@@ -3987,7 +3987,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0</v>
@@ -6608,280 +6608,280 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="6" t="inlineStr">
+      <c r="A88" s="2" t="inlineStr">
         <is>
           <t>Термонаклейка Сердце Море Силует</t>
         </is>
       </c>
-      <c r="B88" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F88" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H88" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N88" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" s="6" t="n">
+      <c r="B88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Q88" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R88" s="6" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S88" s="6" t="inlineStr"/>
-      <c r="T88" s="6" t="inlineStr"/>
-      <c r="U88" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V88" s="6" t="inlineStr">
+      <c r="Q88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" s="2" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S88" s="2" t="inlineStr"/>
+      <c r="T88" s="2" t="inlineStr"/>
+      <c r="U88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V88" s="2" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="6" t="inlineStr">
+      <c r="A89" s="2" t="inlineStr">
         <is>
           <t>Термонаклейка Сердце отпечаток пальца красный</t>
         </is>
       </c>
-      <c r="B89" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D89" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="G89" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H89" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M89" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N89" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" s="6" t="n">
+      <c r="B89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Q89" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R89" s="6" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S89" s="6" t="inlineStr"/>
-      <c r="T89" s="6" t="inlineStr"/>
-      <c r="U89" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V89" s="6" t="inlineStr">
+      <c r="Q89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" s="2" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S89" s="2" t="inlineStr"/>
+      <c r="T89" s="2" t="inlineStr"/>
+      <c r="U89" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" s="2" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="6" t="inlineStr">
+      <c r="A90" s="2" t="inlineStr">
         <is>
           <t>Термонаклейка Девушка Силует Акварель Лес</t>
         </is>
       </c>
-      <c r="B90" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H90" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N90" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P90" s="6" t="n">
+      <c r="B90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P90" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Q90" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R90" s="6" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S90" s="6" t="inlineStr"/>
-      <c r="T90" s="6" t="inlineStr"/>
-      <c r="U90" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V90" s="6" t="inlineStr">
+      <c r="Q90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" s="2" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S90" s="2" t="inlineStr"/>
+      <c r="T90" s="2" t="inlineStr"/>
+      <c r="U90" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" s="2" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="6" t="inlineStr">
+      <c r="A91" s="2" t="inlineStr">
         <is>
           <t>Термонаклейка Девушка бабочка Ван Гог</t>
         </is>
       </c>
-      <c r="B91" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C91" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G91" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N91" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" s="6" t="n">
+      <c r="B91" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Q91" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R91" s="6" t="inlineStr">
-        <is>
-          <t>1_а4</t>
-        </is>
-      </c>
-      <c r="S91" s="6" t="inlineStr"/>
-      <c r="T91" s="6" t="inlineStr"/>
-      <c r="U91" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V91" s="6" t="inlineStr">
+      <c r="Q91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" s="2" t="inlineStr">
+        <is>
+          <t>1_а4</t>
+        </is>
+      </c>
+      <c r="S91" s="2" t="inlineStr"/>
+      <c r="T91" s="2" t="inlineStr"/>
+      <c r="U91" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" s="2" t="inlineStr">
         <is>
           <t>1_а4</t>
         </is>
@@ -8939,25 +8939,25 @@
         <v>1</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I121" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K121" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L121" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M121" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N121" s="2" t="n">
         <v>0</v>
@@ -9353,10 +9353,10 @@
         <v>1</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127" s="2" t="n">
         <v>0</v>
@@ -9365,13 +9365,13 @@
         <v>0</v>
       </c>
       <c r="I127" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L127" s="2" t="n">
         <v>0</v>
@@ -9429,22 +9429,22 @@
         <v>0</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I128" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K128" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128" s="2" t="n">
         <v>0</v>
@@ -9554,10 +9554,10 @@
         </is>
       </c>
       <c r="B130" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" s="2" t="n">
         <v>0</v>
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J130" s="2" t="n">
         <v>0</v>
@@ -9709,13 +9709,13 @@
         <v>0</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H132" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" s="2" t="n">
         <v>0</v>
@@ -9837,13 +9837,13 @@
         <v>1</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" s="2" t="n">
         <v>0</v>
@@ -9910,13 +9910,13 @@
         <v>0</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G135" s="2" t="n">
         <v>0</v>
@@ -10458,280 +10458,280 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="inlineStr">
+      <c r="A143" s="3" t="inlineStr">
         <is>
           <t>Термонаклейка Лило и Стич сидят</t>
         </is>
       </c>
-      <c r="B143" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C143" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D143" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E143" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P143" s="2" t="n">
+      <c r="B143" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E143" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F143" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="Q143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R143" s="2" t="inlineStr">
+      <c r="Q143" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" s="3" t="inlineStr">
         <is>
           <t>2_а5</t>
         </is>
       </c>
-      <c r="S143" s="2" t="inlineStr"/>
-      <c r="T143" s="2" t="inlineStr"/>
-      <c r="U143" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V143" s="2" t="inlineStr">
+      <c r="S143" s="3" t="inlineStr"/>
+      <c r="T143" s="3" t="inlineStr"/>
+      <c r="U143" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V143" s="3" t="inlineStr">
         <is>
           <t>2_а5</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="inlineStr">
+      <c r="A144" s="3" t="inlineStr">
         <is>
           <t>Термонаклейка Минни Маус и бабочка</t>
         </is>
       </c>
-      <c r="B144" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C144" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E144" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F144" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G144" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H144" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K144" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N144" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O144" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P144" s="2" t="n">
+      <c r="B144" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="Q144" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R144" s="2" t="inlineStr">
+      <c r="Q144" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" s="3" t="inlineStr">
         <is>
           <t>2_а5</t>
         </is>
       </c>
-      <c r="S144" s="2" t="inlineStr"/>
-      <c r="T144" s="2" t="inlineStr"/>
-      <c r="U144" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V144" s="2" t="inlineStr">
+      <c r="S144" s="3" t="inlineStr"/>
+      <c r="T144" s="3" t="inlineStr"/>
+      <c r="U144" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V144" s="3" t="inlineStr">
         <is>
           <t>2_а5</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="inlineStr">
+      <c r="A145" s="3" t="inlineStr">
         <is>
           <t>Термонаклейка Минни Маус целует Микки</t>
         </is>
       </c>
-      <c r="B145" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C145" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D145" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E145" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F145" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G145" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H145" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K145" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M145" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O145" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P145" s="2" t="n">
+      <c r="B145" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P145" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="Q145" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R145" s="2" t="inlineStr">
+      <c r="Q145" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R145" s="3" t="inlineStr">
         <is>
           <t>2_а5</t>
         </is>
       </c>
-      <c r="S145" s="2" t="inlineStr"/>
-      <c r="T145" s="2" t="inlineStr"/>
-      <c r="U145" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V145" s="2" t="inlineStr">
+      <c r="S145" s="3" t="inlineStr"/>
+      <c r="T145" s="3" t="inlineStr"/>
+      <c r="U145" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V145" s="3" t="inlineStr">
         <is>
           <t>2_а5</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="inlineStr">
+      <c r="A146" s="3" t="inlineStr">
         <is>
           <t>Термонаклейка львенок с милой улыбкой</t>
         </is>
       </c>
-      <c r="B146" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C146" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D146" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E146" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F146" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G146" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H146" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J146" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K146" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M146" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N146" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O146" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P146" s="2" t="n">
+      <c r="B146" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="Q146" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R146" s="2" t="inlineStr">
+      <c r="Q146" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" s="3" t="inlineStr">
         <is>
           <t>2_а5</t>
         </is>
       </c>
-      <c r="S146" s="2" t="inlineStr"/>
-      <c r="T146" s="2" t="inlineStr"/>
-      <c r="U146" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V146" s="2" t="inlineStr">
+      <c r="S146" s="3" t="inlineStr"/>
+      <c r="T146" s="3" t="inlineStr"/>
+      <c r="U146" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V146" s="3" t="inlineStr">
         <is>
           <t>2_а5</t>
         </is>
@@ -10890,40 +10890,40 @@
         <v>0</v>
       </c>
       <c r="D149" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149" s="7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H149" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" s="7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J149" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L149" s="7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M149" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N149" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O149" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P149" s="7" t="n">
         <v>12</v>
@@ -11039,22 +11039,22 @@
         <v>0</v>
       </c>
       <c r="G151" s="7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H151" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L151" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M151" s="7" t="n">
         <v>0</v>
@@ -11097,7 +11097,7 @@
         <v>1</v>
       </c>
       <c r="C152" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" s="7" t="n">
         <v>0</v>
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="M152" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N152" s="7" t="n">
         <v>0</v>
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="P152" s="7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q152" s="7" t="n">
         <v>0</v>
@@ -11149,9 +11149,79 @@
       <c r="S152" s="7" t="inlineStr"/>
       <c r="T152" s="7" t="inlineStr"/>
       <c r="U152" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V152" s="7" t="inlineStr">
+        <is>
+          <t>6_а4_настройки_60</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="7" t="inlineStr">
+        <is>
+          <t>Термонаклейка Пантера рычит звезды розовый фон</t>
+        </is>
+      </c>
+      <c r="B153" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O153" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q153" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" s="7" t="inlineStr">
+        <is>
+          <t>6_а4_настройки_60</t>
+        </is>
+      </c>
+      <c r="S153" s="7" t="inlineStr"/>
+      <c r="T153" s="7" t="inlineStr"/>
+      <c r="U153" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V153" s="7" t="inlineStr">
         <is>
           <t>6_а4_настройки_60</t>
         </is>

--- a/MainTop/08.04.2025/всего3_sorted.xlsx
+++ b/MainTop/08.04.2025/всего3_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\08.04.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7272832A-EA22-4E21-8DE5-A600D863154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85465DF5-CD30-4405-93F1-20EDAB746049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -546,7 +546,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -849,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G137" sqref="G137"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4402,34 +4401,6 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6">
-        <f>SUM(B2:B136)</f>
-        <v>143</v>
-      </c>
-      <c r="C137" s="6">
-        <f t="shared" ref="C137:G137" si="0">SUM(C2:C136)</f>
-        <v>340</v>
-      </c>
-      <c r="D137" s="6">
-        <f t="shared" si="0"/>
-        <v>142</v>
-      </c>
-      <c r="E137" s="6">
-        <f t="shared" si="0"/>
-        <v>162</v>
-      </c>
-      <c r="F137" s="6">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="G137" s="6">
-        <f t="shared" si="0"/>
-        <v>904</v>
-      </c>
-      <c r="H137" s="6"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
